--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_42.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_42.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_42_0</t>
+          <t>model_1_42_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9997566970983511</v>
+        <v>0.9450383503174998</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8260080496222133</v>
+        <v>0.7165420186997041</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8190946287967276</v>
+        <v>0.787776044402374</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9996371056790788</v>
+        <v>0.9462065123129995</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001012754823530091</v>
+        <v>0.1764426798885287</v>
       </c>
       <c r="G2" t="n">
-        <v>1.163484973335525</v>
+        <v>1.895484826159068</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6470880232979945</v>
+        <v>0.7591127837207354</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001111705786392903</v>
+        <v>0.2111379677018644</v>
       </c>
       <c r="J2" t="n">
-        <v>0.08872156973201722</v>
+        <v>0.8722678706530921</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03182380906695631</v>
+        <v>0.4200508063181508</v>
       </c>
       <c r="L2" t="n">
-        <v>1.015571385705528</v>
+        <v>0.9251586046876593</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03232500224762287</v>
+        <v>0.4266661866209048</v>
       </c>
       <c r="N2" t="n">
-        <v>143.790162226177</v>
+        <v>37.4695184303861</v>
       </c>
       <c r="O2" t="n">
-        <v>285.1253347693934</v>
+        <v>74.43410201861191</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_42_1</t>
+          <t>model_1_42_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9997719233474428</v>
+        <v>0.9449950843545634</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8257465987801146</v>
+        <v>0.7164848680060492</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8189916614576388</v>
+        <v>0.787950034383075</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9995705216514026</v>
+        <v>0.9462561008081832</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0009493751551937023</v>
+        <v>0.1765815760550841</v>
       </c>
       <c r="G3" t="n">
-        <v>1.165233296320509</v>
+        <v>1.895866993110694</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6474563314995256</v>
+        <v>0.758490431648287</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001315682108373084</v>
+        <v>0.210943334214714</v>
       </c>
       <c r="J3" t="n">
-        <v>0.08545408863021429</v>
+        <v>0.8731282545003732</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03081193202630602</v>
+        <v>0.4202161063727616</v>
       </c>
       <c r="L3" t="n">
-        <v>1.014596905763661</v>
+        <v>0.9250996893338735</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03129718915508828</v>
+        <v>0.4268340899861363</v>
       </c>
       <c r="N3" t="n">
-        <v>143.9194130422898</v>
+        <v>37.46794464420699</v>
       </c>
       <c r="O3" t="n">
-        <v>285.2545855855062</v>
+        <v>74.43252823243282</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_42_2</t>
+          <t>model_1_42_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9997912373754587</v>
+        <v>0.9449507156897506</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8249997731666425</v>
+        <v>0.7164267220843488</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8176885504530477</v>
+        <v>0.788125914358228</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9995568969889255</v>
+        <v>0.9463058790409642</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0008689799979541658</v>
+        <v>0.1767240122113468</v>
       </c>
       <c r="G4" t="n">
-        <v>1.170227322636612</v>
+        <v>1.896255815156842</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6521174840042305</v>
+        <v>0.7578613191752717</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001357420474724302</v>
+        <v>0.2107479560126851</v>
       </c>
       <c r="J4" t="n">
-        <v>0.07965575784279952</v>
+        <v>0.8739919099566126</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02947846668254924</v>
+        <v>0.4203855518584658</v>
       </c>
       <c r="L4" t="n">
-        <v>1.013360807970642</v>
+        <v>0.9250392724285966</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02994272306514364</v>
+        <v>0.427006204068857</v>
       </c>
       <c r="N4" t="n">
-        <v>144.0963809005555</v>
+        <v>37.46633203270341</v>
       </c>
       <c r="O4" t="n">
-        <v>285.4315534437719</v>
+        <v>74.43091562092924</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_42_3</t>
+          <t>model_1_42_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9997928770024994</v>
+        <v>0.9449052515297247</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8249160208433425</v>
+        <v>0.7163675594695663</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8178081965406456</v>
+        <v>0.7883033621522463</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9995543887384108</v>
+        <v>0.9463558512833159</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0008621550066241769</v>
+        <v>0.1768699652218586</v>
       </c>
       <c r="G5" t="n">
-        <v>1.170787374808164</v>
+        <v>1.896651435834311</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6516895168863714</v>
+        <v>0.7572265987050824</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001365104355265028</v>
+        <v>0.2105518163283975</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07887057600067818</v>
+        <v>0.8748526761602218</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02936247616643012</v>
+        <v>0.4205591102590201</v>
       </c>
       <c r="L5" t="n">
-        <v>1.013255871840038</v>
+        <v>0.924977363785157</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02982490581434363</v>
+        <v>0.4271824958407253</v>
       </c>
       <c r="N5" t="n">
-        <v>144.1121509627936</v>
+        <v>37.4646809523331</v>
       </c>
       <c r="O5" t="n">
-        <v>285.44732350601</v>
+        <v>74.42926454055892</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_42_4</t>
+          <t>model_1_42_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9997987179266012</v>
+        <v>0.9448586387809896</v>
       </c>
       <c r="C6" t="n">
-        <v>0.824074612166257</v>
+        <v>0.7163073532661209</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8165914073782508</v>
+        <v>0.7884826156048313</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9994435477309418</v>
+        <v>0.9464060432026971</v>
       </c>
       <c r="F6" t="n">
-        <v>0.000837842004116058</v>
+        <v>0.1770196055319895</v>
       </c>
       <c r="G6" t="n">
-        <v>1.176413878506165</v>
+        <v>1.897054034993974</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6560419011667685</v>
+        <v>0.7565854194988978</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001704659377951085</v>
+        <v>0.210354814417779</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07327481282345159</v>
+        <v>0.8757505640572233</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02894550058499694</v>
+        <v>0.4207369790403376</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01288205269752</v>
+        <v>0.9249138911060284</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02940136328432553</v>
+        <v>0.427363165877545</v>
       </c>
       <c r="N6" t="n">
-        <v>144.1693620289979</v>
+        <v>37.46298957364984</v>
       </c>
       <c r="O6" t="n">
-        <v>285.5045345722143</v>
+        <v>74.42757316187567</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_42_6</t>
+          <t>model_1_42_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9997991723976651</v>
+        <v>0.9448109066156299</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8238793940121258</v>
+        <v>0.7162460355888931</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8161307254350659</v>
+        <v>0.7886635369568202</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9993584243501836</v>
+        <v>0.9464564859716982</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0008359502561799002</v>
+        <v>0.1771728394909699</v>
       </c>
       <c r="G7" t="n">
-        <v>1.177719303201737</v>
+        <v>1.897464066583938</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6576897337656669</v>
+        <v>0.7559382743132562</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001965429937010578</v>
+        <v>0.2101568279292633</v>
       </c>
       <c r="J7" t="n">
-        <v>0.07173115025057568</v>
+        <v>0.8766499673939908</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02891280436380913</v>
+        <v>0.4209190414925059</v>
       </c>
       <c r="L7" t="n">
-        <v>1.012852966549431</v>
+        <v>0.9248488941149003</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02936815213033824</v>
+        <v>0.4275480956313393</v>
       </c>
       <c r="N7" t="n">
-        <v>144.1738828976541</v>
+        <v>37.4612590571389</v>
       </c>
       <c r="O7" t="n">
-        <v>285.5090554408705</v>
+        <v>74.42584264536472</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_42_5</t>
+          <t>model_1_42_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.999800759363519</v>
+        <v>0.9447619654170362</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8238647370018114</v>
+        <v>0.7161836612078657</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8164606870178743</v>
+        <v>0.7888461881729804</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9994245860716001</v>
+        <v>0.9465071567528773</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0008293444684460969</v>
+        <v>0.1773299547938533</v>
       </c>
       <c r="G8" t="n">
-        <v>1.177817314697199</v>
+        <v>1.897881164357076</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6565094803162328</v>
+        <v>0.7552849415037777</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001762747325858896</v>
+        <v>0.2099579464991859</v>
       </c>
       <c r="J8" t="n">
-        <v>0.07221615374563325</v>
+        <v>0.8775961773728709</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02879834141831951</v>
+        <v>0.4211056337712111</v>
       </c>
       <c r="L8" t="n">
-        <v>1.012751400734786</v>
+        <v>0.924782250780645</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02925188650787813</v>
+        <v>0.4277376265519102</v>
       </c>
       <c r="N8" t="n">
-        <v>144.1897499325611</v>
+        <v>37.45948626080891</v>
       </c>
       <c r="O8" t="n">
-        <v>285.5249224757775</v>
+        <v>74.42406984903472</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_42_7</t>
+          <t>model_1_42_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9997977994950791</v>
+        <v>0.9447118282250366</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8238161964542202</v>
+        <v>0.7161201305539373</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8159338254585129</v>
+        <v>0.7890306693350753</v>
       </c>
       <c r="E9" t="n">
-        <v>0.999345886374909</v>
+        <v>0.946558184458195</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0008416649998461905</v>
+        <v>0.177490909579046</v>
       </c>
       <c r="G9" t="n">
-        <v>1.17814190556245</v>
+        <v>1.898305994132428</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6583940335648804</v>
+        <v>0.7546250630837966</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002003839299899093</v>
+        <v>0.2097576641516287</v>
       </c>
       <c r="J9" t="n">
-        <v>0.07183340482881306</v>
+        <v>0.879215472544806</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02901146324896748</v>
+        <v>0.4212967001758333</v>
       </c>
       <c r="L9" t="n">
-        <v>1.012940832314939</v>
+        <v>0.9247139788596244</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02946836479431513</v>
+        <v>0.4279317020614089</v>
       </c>
       <c r="N9" t="n">
-        <v>144.1602569706113</v>
+        <v>37.45767177003462</v>
       </c>
       <c r="O9" t="n">
-        <v>285.4954295138277</v>
+        <v>74.42225535826043</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_42_8</t>
+          <t>model_1_42_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9997986614910671</v>
+        <v>0.9446603705144319</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8237620610676247</v>
+        <v>0.7160554764876889</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8159184165104626</v>
+        <v>0.7892168168120317</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9993355547082423</v>
+        <v>0.9466093010056232</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0008380769185337544</v>
+        <v>0.1776561036082004</v>
       </c>
       <c r="G10" t="n">
-        <v>1.178503909141885</v>
+        <v>1.898738336171135</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6584491504785943</v>
+        <v>0.7539592243521742</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002035489763833946</v>
+        <v>0.2095570331012171</v>
       </c>
       <c r="J10" t="n">
-        <v>0.07115036075489707</v>
+        <v>0.8808463058351225</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02894955817510441</v>
+        <v>0.4214927088434631</v>
       </c>
       <c r="L10" t="n">
-        <v>1.012885664571705</v>
+        <v>0.9246439087856093</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02940548477742109</v>
+        <v>0.4281307976696171</v>
       </c>
       <c r="N10" t="n">
-        <v>144.1688013469361</v>
+        <v>37.45581119922947</v>
       </c>
       <c r="O10" t="n">
-        <v>285.5039738901525</v>
+        <v>74.42039478745528</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_42_9</t>
+          <t>model_1_42_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9997992660501456</v>
+        <v>0.944607703245591</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8237313252632871</v>
+        <v>0.7159896728831151</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8160041288444272</v>
+        <v>0.7894047618975102</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9993237708208875</v>
+        <v>0.9466607347235121</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0008355604252296562</v>
+        <v>0.1778251806666653</v>
       </c>
       <c r="G11" t="n">
-        <v>1.178709439607016</v>
+        <v>1.899178365177918</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6581425624298894</v>
+        <v>0.7532869556790996</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002071589021946363</v>
+        <v>0.2093551571654239</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0702626020527012</v>
+        <v>0.8824847597470569</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02890606208444271</v>
+        <v>0.4216932305203219</v>
       </c>
       <c r="L11" t="n">
-        <v>1.012846972790683</v>
+        <v>0.9245721916535706</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02936130366681161</v>
+        <v>0.4283344773624382</v>
       </c>
       <c r="N11" t="n">
-        <v>144.1748157806124</v>
+        <v>37.45390868476591</v>
       </c>
       <c r="O11" t="n">
-        <v>285.5099883238288</v>
+        <v>74.41849227299173</v>
       </c>
     </row>
   </sheetData>
